--- a/data/PVAL02 comparisons.xlsx
+++ b/data/PVAL02 comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Quality Management System\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Analyst</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>PVAL02 analysis</t>
+  </si>
+  <si>
+    <t>KL &amp; BC</t>
+  </si>
+  <si>
+    <t>This sample was transferred to PVAL05</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,17 +390,17 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -414,7 +420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -430,8 +436,12 @@
       <c r="E4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -447,8 +457,12 @@
       <c r="E5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G12" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -464,8 +478,12 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -481,8 +499,12 @@
       <c r="E7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -497,6 +519,97 @@
       </c>
       <c r="E8">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9537832</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3.9</v>
+      </c>
+      <c r="E9">
+        <v>3.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9537833</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9541038</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9541041</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/PVAL02 comparisons.xlsx
+++ b/data/PVAL02 comparisons.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Quality Management System\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="200" yWindow="8600" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Analyst</t>
   </si>
@@ -54,6 +52,15 @@
   </si>
   <si>
     <t>PVAL02 analysis</t>
+  </si>
+  <si>
+    <t>KL &amp; BC</t>
+  </si>
+  <si>
+    <t>This sample was transferred to PVAL05</t>
+  </si>
+  <si>
+    <t>Variation</t>
   </si>
 </sst>
 </file>
@@ -151,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,30 +378,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -413,8 +420,11 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -430,8 +440,12 @@
       <c r="E4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -447,8 +461,12 @@
       <c r="E5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G16" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -464,8 +482,12 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -481,8 +503,12 @@
       <c r="E7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -498,9 +524,189 @@
       <c r="E8">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9537832</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3.9</v>
+      </c>
+      <c r="E9">
+        <v>3.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9537833</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9541038</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9541041</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9602060</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>9602061</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1.3</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9602062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>9602063</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>